--- a/medicine/Pharmacie/Rilonacept/Rilonacept.xlsx
+++ b/medicine/Pharmacie/Rilonacept/Rilonacept.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,15 +490,17 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le rilonacept est une molécule utilisée comme médicament inhibant l'interleukine 1.
 Rilonacept est commercialisé par Regeneron Pharmaceuticalsl sous le nom de spécialité Arcalyst.
-Il s'agit d'une protéine dimérique qui présente le ligand récepteur spécifique de l'interleukine 1. (IL-1R1) et le récepteur accessoire (IL-1RAcP). Liée au fragment Fc d'IgG1, il neutralise l'activité de l'IL1[1]. 
-Son indication est le syndrome périodique associé à la cryopyrine (en) (CAPS) et notamment le syndrome de Muckle-Wells. Il a été testé avec succès sur les gouttes réfractaires[2] ainsi que sur les péricardites récidivantes [3].
+Il s'agit d'une protéine dimérique qui présente le ligand récepteur spécifique de l'interleukine 1. (IL-1R1) et le récepteur accessoire (IL-1RAcP). Liée au fragment Fc d'IgG1, il neutralise l'activité de l'IL1. 
+Son indication est le syndrome périodique associé à la cryopyrine (en) (CAPS) et notamment le syndrome de Muckle-Wells. Il a été testé avec succès sur les gouttes réfractaires ainsi que sur les péricardites récidivantes .
 Aux États-Unis la FDA a refusé d'accorder au rilonacept une indication dans le traitement de la goutte au motif que les risques ne sont pas en rapport avec le bénéfice escompté.
-les risques sont les infections, le plus souvent mineures et les irritations au point d'injection[4].
+les risques sont les infections, le plus souvent mineures et les irritations au point d'injection.
 </t>
         </is>
       </c>
